--- a/biology/Médecine/Zelal/Zelal.xlsx
+++ b/biology/Médecine/Zelal/Zelal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zelal est un documentaire réalisé en 2010 par Marianne Khoury et Mustapha Hasnaoui.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Zelal est une invitation à plonger dans le monde de la psychiatrie et de la folie, en Égypte. Le film part à la rencontre de ces patients ordinaires, enfermés dans des hôpitaux par la société égyptienne, et offre davantage qu’un voyage au cœur de leur monde obscur. Les hôpitaux finissent par être le seul endroit que les patients envisagent, pas parce qu’ils sont réellement « fous » mais parce qu’ils craignent le monde extérieur. Le film oblige ainsi les spectateurs à remettre en question leurs préjugés et leurs interprétations, nous rappelant que, dans une société qui ne supporte pas la différence, la liberté est précaire.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Marianne Khoury, Mustapha Hasnaoui
 Production : Gabriel Khoury, Marianne Khoury
@@ -576,9 +592,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix FIPRESCI du meilleur documentaire au festival de Dubaï en 2010[1]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix FIPRESCI du meilleur documentaire au festival de Dubaï en 2010</t>
         </is>
       </c>
     </row>
